--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8155043333333335</v>
+        <v>1.688184333333333</v>
       </c>
       <c r="H2">
-        <v>2.446513</v>
+        <v>5.064553</v>
       </c>
       <c r="I2">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="J2">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N2">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O2">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P2">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q2">
-        <v>11.316874328308</v>
+        <v>16.95816108249033</v>
       </c>
       <c r="R2">
-        <v>101.851868954772</v>
+        <v>152.623449742413</v>
       </c>
       <c r="S2">
-        <v>0.06162309927431058</v>
+        <v>0.1100128283453549</v>
       </c>
       <c r="T2">
-        <v>0.06162309927431059</v>
+        <v>0.1100128283453549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8155043333333335</v>
+        <v>1.688184333333333</v>
       </c>
       <c r="H3">
-        <v>2.446513</v>
+        <v>5.064553</v>
       </c>
       <c r="I3">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="J3">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.277978</v>
       </c>
       <c r="O3">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P3">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q3">
-        <v>0.347398865634889</v>
+        <v>0.7191541459815556</v>
       </c>
       <c r="R3">
-        <v>3.126589790714001</v>
+        <v>6.472387313834</v>
       </c>
       <c r="S3">
-        <v>0.001891670276063086</v>
+        <v>0.00466537505044744</v>
       </c>
       <c r="T3">
-        <v>0.001891670276063086</v>
+        <v>0.00466537505044744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8155043333333335</v>
+        <v>1.688184333333333</v>
       </c>
       <c r="H4">
-        <v>2.446513</v>
+        <v>5.064553</v>
       </c>
       <c r="I4">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="J4">
-        <v>0.06451520947540779</v>
+        <v>0.1174709603088462</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N4">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O4">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P4">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q4">
-        <v>0.1837274177696667</v>
+        <v>0.4304954459216666</v>
       </c>
       <c r="R4">
-        <v>1.653546759927</v>
+        <v>3.874459013295</v>
       </c>
       <c r="S4">
-        <v>0.00100043992503411</v>
+        <v>0.002792756913043924</v>
       </c>
       <c r="T4">
-        <v>0.00100043992503411</v>
+        <v>0.002792756913043924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>3.210599</v>
       </c>
       <c r="I5">
-        <v>0.08466436394433005</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="J5">
-        <v>0.08466436394433004</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N5">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O5">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P5">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q5">
-        <v>14.851319163884</v>
+        <v>10.75037718299767</v>
       </c>
       <c r="R5">
-        <v>133.661872474956</v>
+        <v>96.753394646979</v>
       </c>
       <c r="S5">
-        <v>0.0808690004537079</v>
+        <v>0.0697410169609772</v>
       </c>
       <c r="T5">
-        <v>0.08086900045370789</v>
+        <v>0.0697410169609772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>3.210599</v>
       </c>
       <c r="I6">
-        <v>0.08466436394433005</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="J6">
-        <v>0.08466436394433004</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,10 +815,10 @@
         <v>1.277978</v>
       </c>
       <c r="O6">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P6">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q6">
         <v>0.4558972098691111</v>
@@ -827,10 +827,10 @@
         <v>4.103074888822</v>
       </c>
       <c r="S6">
-        <v>0.002482469824054835</v>
+        <v>0.002957546000918837</v>
       </c>
       <c r="T6">
-        <v>0.002482469824054835</v>
+        <v>0.002957546000918837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3.210599</v>
       </c>
       <c r="I7">
-        <v>0.08466436394433005</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="J7">
-        <v>0.08466436394433004</v>
+        <v>0.07446899019451893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N7">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O7">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P7">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q7">
-        <v>0.2411084935023333</v>
+        <v>0.2729062659983333</v>
       </c>
       <c r="R7">
-        <v>2.169976441521</v>
+        <v>2.456156393985</v>
       </c>
       <c r="S7">
-        <v>0.00131289366656731</v>
+        <v>0.001770427232622881</v>
       </c>
       <c r="T7">
-        <v>0.00131289366656731</v>
+        <v>0.001770427232622881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.792556333333333</v>
+        <v>2.313935</v>
       </c>
       <c r="H8">
-        <v>5.377668999999999</v>
+        <v>6.941805</v>
       </c>
       <c r="I8">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="J8">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N8">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O8">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P8">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q8">
-        <v>24.87556953600399</v>
+        <v>23.243956059545</v>
       </c>
       <c r="R8">
-        <v>223.880125824036</v>
+        <v>209.195604535905</v>
       </c>
       <c r="S8">
-        <v>0.1354534517704923</v>
+        <v>0.1507907216830243</v>
       </c>
       <c r="T8">
-        <v>0.1354534517704923</v>
+        <v>0.1507907216830244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.792556333333333</v>
+        <v>2.313935</v>
       </c>
       <c r="H9">
-        <v>5.377668999999999</v>
+        <v>6.941805</v>
       </c>
       <c r="I9">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="J9">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>1.277978</v>
       </c>
       <c r="O9">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P9">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q9">
-        <v>0.7636158525868888</v>
+        <v>0.9857193411433333</v>
       </c>
       <c r="R9">
-        <v>6.872542673281999</v>
+        <v>8.871474070290001</v>
       </c>
       <c r="S9">
-        <v>0.004158071754291064</v>
+        <v>0.006394665798160526</v>
       </c>
       <c r="T9">
-        <v>0.004158071754291065</v>
+        <v>0.006394665798160526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.792556333333333</v>
+        <v>2.313935</v>
       </c>
       <c r="H10">
-        <v>5.377668999999999</v>
+        <v>6.941805</v>
       </c>
       <c r="I10">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="J10">
-        <v>0.1418105859336969</v>
+        <v>0.1610133213388724</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N10">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O10">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P10">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q10">
-        <v>0.4038503940056666</v>
+        <v>0.590064994675</v>
       </c>
       <c r="R10">
-        <v>3.634653546051</v>
+        <v>5.310584952075</v>
       </c>
       <c r="S10">
-        <v>0.002199062408913526</v>
+        <v>0.003827933857687515</v>
       </c>
       <c r="T10">
-        <v>0.002199062408913526</v>
+        <v>0.003827933857687515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8420946666666667</v>
+        <v>0.5887196666666666</v>
       </c>
       <c r="H11">
-        <v>2.526284</v>
+        <v>1.766159</v>
       </c>
       <c r="I11">
-        <v>0.06661879231966929</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="J11">
-        <v>0.06661879231966927</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N11">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O11">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P11">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q11">
-        <v>11.685872319344</v>
+        <v>5.913810916637666</v>
       </c>
       <c r="R11">
-        <v>105.172850874096</v>
+        <v>53.224298249739</v>
       </c>
       <c r="S11">
-        <v>0.06363238197675729</v>
+        <v>0.03836471785320513</v>
       </c>
       <c r="T11">
-        <v>0.06363238197675729</v>
+        <v>0.03836471785320513</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8420946666666667</v>
+        <v>0.5887196666666666</v>
       </c>
       <c r="H12">
-        <v>2.526284</v>
+        <v>1.766159</v>
       </c>
       <c r="I12">
-        <v>0.06661879231966929</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="J12">
-        <v>0.06661879231966927</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1187,22 @@
         <v>1.277978</v>
       </c>
       <c r="O12">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P12">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q12">
-        <v>0.3587261526391111</v>
+        <v>0.2507902607224444</v>
       </c>
       <c r="R12">
-        <v>3.228535373752</v>
+        <v>2.257112346502</v>
       </c>
       <c r="S12">
-        <v>0.001953350074859098</v>
+        <v>0.001626953876032732</v>
       </c>
       <c r="T12">
-        <v>0.001953350074859098</v>
+        <v>0.001626953876032732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8420946666666667</v>
+        <v>0.5887196666666666</v>
       </c>
       <c r="H13">
-        <v>2.526284</v>
+        <v>1.766159</v>
       </c>
       <c r="I13">
-        <v>0.06661879231966929</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="J13">
-        <v>0.06661879231966927</v>
+        <v>0.04096558843161708</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N13">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O13">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P13">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q13">
-        <v>0.1897180337373333</v>
+        <v>0.1501264585983333</v>
       </c>
       <c r="R13">
-        <v>1.707462303636</v>
+        <v>1.351138127385</v>
       </c>
       <c r="S13">
-        <v>0.001033060268052887</v>
+        <v>0.0009739167023792118</v>
       </c>
       <c r="T13">
-        <v>0.001033060268052887</v>
+        <v>0.0009739167023792118</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.337404666666667</v>
+        <v>7.350912666666666</v>
       </c>
       <c r="H14">
-        <v>19.012214</v>
+        <v>22.052738</v>
       </c>
       <c r="I14">
-        <v>0.5013572250796462</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="J14">
-        <v>0.5013572250796461</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N14">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O14">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P14">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q14">
-        <v>87.94510249522401</v>
+        <v>73.84143937558866</v>
       </c>
       <c r="R14">
-        <v>791.505922457016</v>
+        <v>664.5729543802979</v>
       </c>
       <c r="S14">
-        <v>0.4788822093920765</v>
+        <v>0.4790322226145297</v>
       </c>
       <c r="T14">
-        <v>0.4788822093920765</v>
+        <v>0.4790322226145297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.337404666666667</v>
+        <v>7.350912666666666</v>
       </c>
       <c r="H15">
-        <v>19.012214</v>
+        <v>22.052738</v>
       </c>
       <c r="I15">
-        <v>0.5013572250796462</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="J15">
-        <v>0.5013572250796461</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.277978</v>
       </c>
       <c r="O15">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P15">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q15">
-        <v>2.699687913699111</v>
+        <v>3.131434889307111</v>
       </c>
       <c r="R15">
-        <v>24.297191223292</v>
+        <v>28.182914003764</v>
       </c>
       <c r="S15">
-        <v>0.0147004492132069</v>
+        <v>0.02031458524755377</v>
       </c>
       <c r="T15">
-        <v>0.0147004492132069</v>
+        <v>0.02031458524755377</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.337404666666667</v>
+        <v>7.350912666666666</v>
       </c>
       <c r="H16">
-        <v>19.012214</v>
+        <v>22.052738</v>
       </c>
       <c r="I16">
-        <v>0.5013572250796462</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="J16">
-        <v>0.5013572250796461</v>
+        <v>0.5115073946899924</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N16">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O16">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P16">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q16">
-        <v>1.427772909567333</v>
+        <v>1.874519484563333</v>
       </c>
       <c r="R16">
-        <v>12.849956186106</v>
+        <v>16.87067536107</v>
       </c>
       <c r="S16">
-        <v>0.007774566474362679</v>
+        <v>0.01216058682790889</v>
       </c>
       <c r="T16">
-        <v>0.007774566474362678</v>
+        <v>0.01216058682790889</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.782737666666667</v>
+        <v>1.359126666666667</v>
       </c>
       <c r="H17">
-        <v>5.348212999999999</v>
+        <v>4.07738</v>
       </c>
       <c r="I17">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615294</v>
       </c>
       <c r="J17">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615293</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N17">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O17">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P17">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q17">
-        <v>24.739314445508</v>
+        <v>13.65270870588667</v>
       </c>
       <c r="R17">
-        <v>222.653830009572</v>
+        <v>122.87437835298</v>
       </c>
       <c r="S17">
-        <v>0.1347115100713376</v>
+        <v>0.08856933791368814</v>
       </c>
       <c r="T17">
-        <v>0.1347115100713376</v>
+        <v>0.08856933791368814</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.782737666666667</v>
+        <v>1.359126666666667</v>
       </c>
       <c r="H18">
-        <v>5.348212999999999</v>
+        <v>4.07738</v>
       </c>
       <c r="I18">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615294</v>
       </c>
       <c r="J18">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615293</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,22 +1559,22 @@
         <v>1.277978</v>
       </c>
       <c r="O18">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P18">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q18">
-        <v>0.7594331725904444</v>
+        <v>0.5789779930711111</v>
       </c>
       <c r="R18">
-        <v>6.834898553314</v>
+        <v>5.21080193764</v>
       </c>
       <c r="S18">
-        <v>0.004135296056940707</v>
+        <v>0.003756009054144242</v>
       </c>
       <c r="T18">
-        <v>0.004135296056940707</v>
+        <v>0.003756009054144241</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.782737666666667</v>
+        <v>1.359126666666667</v>
       </c>
       <c r="H19">
-        <v>5.348212999999999</v>
+        <v>4.07738</v>
       </c>
       <c r="I19">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615294</v>
       </c>
       <c r="J19">
-        <v>0.1410338232472499</v>
+        <v>0.09457374503615293</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N19">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O19">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P19">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q19">
-        <v>0.4016383171363333</v>
+        <v>0.3465840956333333</v>
       </c>
       <c r="R19">
-        <v>3.614744854227</v>
+        <v>3.1192568607</v>
       </c>
       <c r="S19">
-        <v>0.002187017118971553</v>
+        <v>0.002248398068320548</v>
       </c>
       <c r="T19">
-        <v>0.002187017118971554</v>
+        <v>0.002248398068320548</v>
       </c>
     </row>
   </sheetData>
